--- a/Snake info.xlsx
+++ b/Snake info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\sn-AI-ke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF36623-5546-429A-BAEF-3A405B7E2FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F827BCC-7CF6-4526-8472-DEAABB4720FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="3915" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collected Data" sheetId="1" r:id="rId1"/>
@@ -742,9 +742,6 @@
     <t>Indian Cobra</t>
   </si>
   <si>
-    <t>Saw-Scaled Viper</t>
-  </si>
-  <si>
     <t>Monocled Cobra</t>
   </si>
   <si>
@@ -1376,6 +1373,9 @@
   </si>
   <si>
     <t>Legacy: taxa was previously part of complex used for immunization</t>
+  </si>
+  <si>
+    <t>Saw-scaled Viper</t>
   </si>
 </sst>
 </file>
@@ -1931,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>28</v>
@@ -10148,7 +10148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10283,7 +10285,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>236</v>
+        <v>447</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>28</v>
@@ -10306,7 +10308,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>31</v>
@@ -18302,19 +18304,19 @@
         <v>10</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F1" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
@@ -18341,22 +18343,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -18364,22 +18366,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -18387,22 +18389,22 @@
         <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="F4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -18410,22 +18412,22 @@
         <v>20</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F5" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -18433,22 +18435,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -18456,22 +18458,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -18479,22 +18481,22 @@
         <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -18502,22 +18504,22 @@
         <v>20</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -18525,22 +18527,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -18548,22 +18550,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="D11" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -18571,22 +18573,22 @@
         <v>23</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -18594,22 +18596,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -18617,22 +18619,22 @@
         <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="F14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -18640,22 +18642,22 @@
         <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="F15" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -18663,22 +18665,22 @@
         <v>23</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -18686,22 +18688,22 @@
         <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -18709,22 +18711,22 @@
         <v>43</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="F18" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -18732,22 +18734,22 @@
         <v>26</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -18755,22 +18757,22 @@
         <v>26</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="F20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18778,22 +18780,22 @@
         <v>26</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18801,22 +18803,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="F22" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18824,22 +18826,22 @@
         <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18847,22 +18849,22 @@
         <v>26</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F24" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18870,22 +18872,22 @@
         <v>26</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18893,22 +18895,22 @@
         <v>177</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E26" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G26" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18916,22 +18918,22 @@
         <v>177</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G27" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18939,22 +18941,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="F28" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18962,22 +18964,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>263</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18985,22 +18987,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F30" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19008,22 +19010,22 @@
         <v>28</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F31" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19031,22 +19033,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="F32" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19054,22 +19056,22 @@
         <v>28</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="F33" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19077,22 +19079,22 @@
         <v>28</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="F34" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19100,22 +19102,22 @@
         <v>28</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>254</v>
-      </c>
       <c r="F35" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19123,22 +19125,22 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>259</v>
-      </c>
       <c r="D36" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19146,22 +19148,22 @@
         <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19169,22 +19171,22 @@
         <v>28</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F38" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19192,22 +19194,22 @@
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F39" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19215,22 +19217,22 @@
         <v>28</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="F40" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19238,22 +19240,22 @@
         <v>28</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>300</v>
-      </c>
       <c r="F41" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19261,22 +19263,22 @@
         <v>31</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="E42" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="F42" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19284,22 +19286,22 @@
         <v>31</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="F43" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19307,22 +19309,22 @@
         <v>31</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19330,22 +19332,22 @@
         <v>31</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="E45" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="F45" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="G45" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19353,22 +19355,22 @@
         <v>34</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19376,22 +19378,22 @@
         <v>34</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F47" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G47" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19399,22 +19401,22 @@
         <v>34</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="E48" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F48" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19422,22 +19424,22 @@
         <v>34</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F49" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19445,22 +19447,22 @@
         <v>34</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="F50" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19468,22 +19470,22 @@
         <v>34</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F51" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19491,22 +19493,22 @@
         <v>34</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19514,22 +19516,22 @@
         <v>34</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19537,22 +19539,22 @@
         <v>34</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F54" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19560,22 +19562,22 @@
         <v>34</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19583,22 +19585,22 @@
         <v>34</v>
       </c>
       <c r="B56" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19606,22 +19608,22 @@
         <v>34</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F57" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19629,22 +19631,22 @@
         <v>34</v>
       </c>
       <c r="B58" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="F58" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19652,22 +19654,22 @@
         <v>37</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19675,22 +19677,22 @@
         <v>37</v>
       </c>
       <c r="B60" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E60" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F60" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19698,22 +19700,22 @@
         <v>37</v>
       </c>
       <c r="B61" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="F61" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19721,22 +19723,22 @@
         <v>37</v>
       </c>
       <c r="B62" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F62" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19744,22 +19746,22 @@
         <v>37</v>
       </c>
       <c r="B63" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19767,22 +19769,22 @@
         <v>37</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="F64" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19790,22 +19792,22 @@
         <v>37</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F65" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19813,22 +19815,22 @@
         <v>37</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F66" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19836,22 +19838,22 @@
         <v>37</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E67" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F67" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19859,22 +19861,22 @@
         <v>37</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19882,22 +19884,22 @@
         <v>40</v>
       </c>
       <c r="B69" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="F69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19905,22 +19907,22 @@
         <v>40</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="F70" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19928,22 +19930,22 @@
         <v>40</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="E71" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="F71" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19951,22 +19953,22 @@
         <v>43</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="F72" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19974,22 +19976,22 @@
         <v>43</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="F73" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -19997,22 +19999,22 @@
         <v>46</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F74" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20020,22 +20022,22 @@
         <v>46</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="E75" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20043,22 +20045,22 @@
         <v>46</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="F76" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20066,22 +20068,22 @@
         <v>46</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="E77" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F77" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20089,22 +20091,22 @@
         <v>46</v>
       </c>
       <c r="B78" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C78" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F78" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20112,22 +20114,22 @@
         <v>46</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D79" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F79" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20135,22 +20137,22 @@
         <v>49</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="D80" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="E80" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F80" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20158,22 +20160,22 @@
         <v>49</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E81" s="8" t="s">
+      <c r="F81" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20181,22 +20183,22 @@
         <v>49</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20204,22 +20206,22 @@
         <v>49</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C83" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F83" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20227,22 +20229,22 @@
         <v>49</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>339</v>
-      </c>
       <c r="F84" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20250,22 +20252,22 @@
         <v>49</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F85" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20273,22 +20275,22 @@
         <v>49</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C86" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E86" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F86" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20296,22 +20298,22 @@
         <v>49</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C87" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F87" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20319,22 +20321,22 @@
         <v>49</v>
       </c>
       <c r="B88" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="E88" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F88" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20342,22 +20344,22 @@
         <v>49</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="E89" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F89" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20365,22 +20367,22 @@
         <v>49</v>
       </c>
       <c r="B90" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F90" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20388,22 +20390,22 @@
         <v>49</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="D91" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="E91" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F91" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20411,22 +20413,22 @@
         <v>49</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F92" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20434,22 +20436,22 @@
         <v>49</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F93" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20457,22 +20459,22 @@
         <v>49</v>
       </c>
       <c r="B94" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="E94" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E94" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="F94" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20480,22 +20482,22 @@
         <v>52</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>343</v>
-      </c>
       <c r="F95" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20503,22 +20505,22 @@
         <v>52</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>275</v>
-      </c>
       <c r="F96" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20526,22 +20528,22 @@
         <v>55</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="G97" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20549,22 +20551,22 @@
         <v>55</v>
       </c>
       <c r="B98" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F98" s="8" t="s">
-        <v>247</v>
-      </c>
       <c r="G98" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20572,22 +20574,22 @@
         <v>58</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20595,22 +20597,22 @@
         <v>58</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F100" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20618,22 +20620,22 @@
         <v>58</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C101" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="D101" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="E101" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E101" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F101" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20641,22 +20643,22 @@
         <v>58</v>
       </c>
       <c r="B102" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E102" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E102" s="8" t="s">
+      <c r="F102" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20664,22 +20666,22 @@
         <v>58</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20687,22 +20689,22 @@
         <v>61</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C104" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="F104" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="G104" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20710,22 +20712,22 @@
         <v>61</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="G105" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20733,22 +20735,22 @@
         <v>61</v>
       </c>
       <c r="B106" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="D106" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="E106" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E106" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="F106" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20756,22 +20758,22 @@
         <v>64</v>
       </c>
       <c r="B107" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F107" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20779,22 +20781,22 @@
         <v>64</v>
       </c>
       <c r="B108" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E108" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F108" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20802,22 +20804,22 @@
         <v>64</v>
       </c>
       <c r="B109" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20825,22 +20827,22 @@
         <v>64</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E110" s="8" t="s">
+      <c r="F110" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20848,22 +20850,22 @@
         <v>64</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20871,22 +20873,22 @@
         <v>64</v>
       </c>
       <c r="B112" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="D112" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E112" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F112" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20894,22 +20896,22 @@
         <v>64</v>
       </c>
       <c r="B113" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="F113" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20917,22 +20919,22 @@
         <v>64</v>
       </c>
       <c r="B114" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20940,22 +20942,22 @@
         <v>68</v>
       </c>
       <c r="B115" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="F115" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20963,22 +20965,22 @@
         <v>68</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="F116" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -20986,22 +20988,22 @@
         <v>68</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="F117" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21009,22 +21011,22 @@
         <v>68</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F118" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21032,22 +21034,22 @@
         <v>68</v>
       </c>
       <c r="B119" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F119" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21055,22 +21057,22 @@
         <v>68</v>
       </c>
       <c r="B120" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="D120" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E120" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F120" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21078,22 +21080,22 @@
         <v>68</v>
       </c>
       <c r="B121" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E121" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="F121" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21101,22 +21103,22 @@
         <v>68</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E122" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="F122" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21124,22 +21126,22 @@
         <v>68</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C123" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D123" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="E123" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F123" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21147,22 +21149,22 @@
         <v>68</v>
       </c>
       <c r="B124" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>382</v>
-      </c>
       <c r="D124" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E124" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E124" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F124" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21170,22 +21172,22 @@
         <v>68</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E125" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E125" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F125" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21193,22 +21195,22 @@
         <v>68</v>
       </c>
       <c r="B126" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C126" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="D126" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E126" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D126" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>386</v>
-      </c>
       <c r="F126" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21216,22 +21218,22 @@
         <v>68</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E127" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F127" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G127" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21239,22 +21241,22 @@
         <v>68</v>
       </c>
       <c r="B128" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="D128" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D128" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E128" s="8" t="s">
-        <v>391</v>
-      </c>
       <c r="F128" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21262,22 +21264,22 @@
         <v>68</v>
       </c>
       <c r="B129" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C129" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="D129" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D129" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="F129" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21285,22 +21287,22 @@
         <v>76</v>
       </c>
       <c r="B130" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E130" s="8" t="s">
+      <c r="F130" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F130" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21308,22 +21310,22 @@
         <v>76</v>
       </c>
       <c r="B131" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C131" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="D131" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D131" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F131" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21331,22 +21333,22 @@
         <v>76</v>
       </c>
       <c r="B132" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F132" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21354,22 +21356,22 @@
         <v>76</v>
       </c>
       <c r="B133" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21377,22 +21379,22 @@
         <v>76</v>
       </c>
       <c r="B134" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C134" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="D134" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="F134" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21400,22 +21402,22 @@
         <v>76</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F135" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G135" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21423,22 +21425,22 @@
         <v>76</v>
       </c>
       <c r="B136" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="D136" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E136" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F136" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21446,22 +21448,22 @@
         <v>79</v>
       </c>
       <c r="B137" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21469,22 +21471,22 @@
         <v>79</v>
       </c>
       <c r="B138" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C138" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E138" s="8" t="s">
+      <c r="F138" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21492,22 +21494,22 @@
         <v>79</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F139" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21515,22 +21517,22 @@
         <v>82</v>
       </c>
       <c r="B140" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="D140" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D140" s="8" t="s">
+      <c r="E140" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E140" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F140" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21538,22 +21540,22 @@
         <v>82</v>
       </c>
       <c r="B141" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="D141" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D141" s="8" t="s">
+      <c r="E141" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="F141" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21561,22 +21563,22 @@
         <v>82</v>
       </c>
       <c r="B142" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C142" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="D142" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D142" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="F142" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21584,22 +21586,22 @@
         <v>82</v>
       </c>
       <c r="B143" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="D143" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D143" s="8" t="s">
+      <c r="E143" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="F143" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21607,22 +21609,22 @@
         <v>82</v>
       </c>
       <c r="B144" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="D144" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D144" s="8" t="s">
+      <c r="E144" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E144" s="8" t="s">
-        <v>288</v>
-      </c>
       <c r="F144" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21630,12 +21632,12 @@
         <v>85</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F145" s="8"/>
       <c r="G145" s="8"/>
@@ -21645,22 +21647,22 @@
         <v>85</v>
       </c>
       <c r="B146" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C146" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="D146" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D146" s="8" t="s">
+      <c r="E146" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="E146" s="8" t="s">
-        <v>269</v>
-      </c>
       <c r="F146" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21668,22 +21670,22 @@
         <v>88</v>
       </c>
       <c r="B147" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="F147" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21691,22 +21693,22 @@
         <v>88</v>
       </c>
       <c r="B148" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C148" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21714,22 +21716,22 @@
         <v>88</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E149" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21737,22 +21739,22 @@
         <v>88</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21760,22 +21762,22 @@
         <v>91</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21783,22 +21785,22 @@
         <v>91</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E152" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21806,22 +21808,22 @@
         <v>91</v>
       </c>
       <c r="B153" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E153" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21829,22 +21831,22 @@
         <v>91</v>
       </c>
       <c r="B154" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E154" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="F154" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21852,22 +21854,22 @@
         <v>93</v>
       </c>
       <c r="B155" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="D155" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D155" s="8" t="s">
+      <c r="E155" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E155" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F155" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21875,22 +21877,22 @@
         <v>93</v>
       </c>
       <c r="B156" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21898,22 +21900,22 @@
         <v>93</v>
       </c>
       <c r="B157" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C157" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="D157" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D157" s="8" t="s">
+      <c r="E157" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F157" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21921,22 +21923,22 @@
         <v>96</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="D158" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D158" s="8" t="s">
+      <c r="E158" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="F158" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21944,22 +21946,22 @@
         <v>96</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C159" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="E159" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E159" s="8" t="s">
-        <v>246</v>
-      </c>
       <c r="F159" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21967,22 +21969,22 @@
         <v>99</v>
       </c>
       <c r="B160" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C160" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="D160" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D160" s="8" t="s">
+      <c r="E160" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E160" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F160" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21990,22 +21992,22 @@
         <v>99</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C161" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D161" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="E161" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E161" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="F161" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G161" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G161" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22013,22 +22015,22 @@
         <v>99</v>
       </c>
       <c r="B162" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="D162" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="E162" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E162" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F162" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G162" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G162" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22036,22 +22038,22 @@
         <v>99</v>
       </c>
       <c r="B163" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C163" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="D163" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E163" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22059,22 +22061,22 @@
         <v>99</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22082,22 +22084,22 @@
         <v>99</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D165" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E165" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E165" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F165" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G165" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G165" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22105,22 +22107,22 @@
         <v>99</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22128,22 +22130,22 @@
         <v>99</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D167" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E167" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F167" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G167" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G167" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22151,22 +22153,22 @@
         <v>99</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E168" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E168" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F168" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G168" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G168" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22174,22 +22176,22 @@
         <v>99</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D169" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E169" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F169" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G169" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G169" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22197,22 +22199,22 @@
         <v>99</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D170" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E170" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E170" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F170" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G170" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22220,22 +22222,22 @@
         <v>99</v>
       </c>
       <c r="B171" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C171" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>382</v>
-      </c>
       <c r="D171" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E171" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E171" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F171" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22243,22 +22245,22 @@
         <v>99</v>
       </c>
       <c r="B172" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="C172" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>416</v>
-      </c>
       <c r="D172" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E172" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E172" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F172" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22266,22 +22268,22 @@
         <v>102</v>
       </c>
       <c r="B173" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E173" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E173" s="8" t="s">
-        <v>329</v>
-      </c>
       <c r="F173" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22289,22 +22291,22 @@
         <v>105</v>
       </c>
       <c r="B174" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C174" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="D174" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D174" s="8" t="s">
+      <c r="E174" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E174" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F174" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22312,22 +22314,22 @@
         <v>105</v>
       </c>
       <c r="B175" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C175" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="D175" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D175" s="8" t="s">
+      <c r="E175" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F175" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22335,22 +22337,22 @@
         <v>105</v>
       </c>
       <c r="B176" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C176" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="D176" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D176" s="8" t="s">
+      <c r="E176" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E176" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F176" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22358,22 +22360,22 @@
         <v>105</v>
       </c>
       <c r="B177" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E177" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C177" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D177" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F177" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22381,22 +22383,22 @@
         <v>105</v>
       </c>
       <c r="B178" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E178" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C178" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D178" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E178" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F178" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22404,22 +22406,22 @@
         <v>105</v>
       </c>
       <c r="B179" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E179" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C179" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E179" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F179" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22427,22 +22429,22 @@
         <v>108</v>
       </c>
       <c r="B180" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G180" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E180" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G180" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22450,22 +22452,22 @@
         <v>108</v>
       </c>
       <c r="B181" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E181" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C181" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D181" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E181" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F181" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22473,22 +22475,22 @@
         <v>108</v>
       </c>
       <c r="B182" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E182" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C182" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E182" s="8" t="s">
+      <c r="F182" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G182" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G182" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22496,22 +22498,22 @@
         <v>108</v>
       </c>
       <c r="B183" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="D183" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D183" s="8" t="s">
+      <c r="E183" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="F183" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G183" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22519,35 +22521,35 @@
         <v>108</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E184" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="37" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F185" s="8"/>
       <c r="G185" s="8"/>
@@ -22557,22 +22559,22 @@
         <v>117</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E186" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22580,22 +22582,22 @@
         <v>117</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E187" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G187" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22603,22 +22605,22 @@
         <v>117</v>
       </c>
       <c r="B188" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C188" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C188" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="D188" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E188" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E188" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F188" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G188" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22626,22 +22628,22 @@
         <v>117</v>
       </c>
       <c r="B189" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C189" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C189" s="8" t="s">
+      <c r="D189" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="E189" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E189" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F189" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G189" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G189" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22649,22 +22651,22 @@
         <v>117</v>
       </c>
       <c r="B190" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C190" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="D190" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="E190" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E190" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F190" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G190" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22672,22 +22674,22 @@
         <v>117</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C191" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D191" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D191" s="8" t="s">
+      <c r="E191" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E191" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="F191" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G191" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G191" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22695,22 +22697,22 @@
         <v>117</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D192" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E192" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F192" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G192" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22718,22 +22720,22 @@
         <v>117</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E193" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C193" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>421</v>
-      </c>
       <c r="F193" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22741,22 +22743,22 @@
         <v>117</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D194" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E194" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="F194" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G194" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22764,22 +22766,22 @@
         <v>117</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C195" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D195" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D195" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="E195" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F195" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G195" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22787,22 +22789,22 @@
         <v>117</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C196" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D196" s="8" t="s">
+      <c r="E196" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E196" s="8" t="s">
-        <v>395</v>
-      </c>
       <c r="F196" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22810,22 +22812,22 @@
         <v>120</v>
       </c>
       <c r="B197" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C197" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C197" s="8" t="s">
+      <c r="D197" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D197" s="8" t="s">
+      <c r="E197" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F197" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G197" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22833,22 +22835,22 @@
         <v>120</v>
       </c>
       <c r="B198" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C198" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C198" s="8" t="s">
+      <c r="D198" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="D198" s="8" t="s">
+      <c r="E198" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="E198" s="8" t="s">
-        <v>426</v>
-      </c>
       <c r="F198" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G198" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22856,22 +22858,22 @@
         <v>120</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C199" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="D199" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E199" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E199" s="8" t="s">
-        <v>369</v>
-      </c>
       <c r="F199" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G199" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22879,22 +22881,22 @@
         <v>120</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E200" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F200" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G200" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22902,22 +22904,22 @@
         <v>120</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C201" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F201" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G201" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G201" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22925,22 +22927,22 @@
         <v>120</v>
       </c>
       <c r="B202" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C202" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C202" s="8" t="s">
-        <v>409</v>
-      </c>
       <c r="D202" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F202" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G202" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22948,22 +22950,22 @@
         <v>120</v>
       </c>
       <c r="B203" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E203" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C203" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D203" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>421</v>
-      </c>
       <c r="F203" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22971,22 +22973,22 @@
         <v>120</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E204" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>428</v>
-      </c>
       <c r="F204" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G204" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -22994,22 +22996,22 @@
         <v>120</v>
       </c>
       <c r="B205" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E205" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C205" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="F205" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G205" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23017,22 +23019,22 @@
         <v>120</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C206" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D206" s="8" t="s">
-        <v>319</v>
-      </c>
       <c r="E206" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F206" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G206" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G206" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23040,22 +23042,22 @@
         <v>120</v>
       </c>
       <c r="B207" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E207" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D207" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E207" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="F207" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G207" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23063,22 +23065,22 @@
         <v>123</v>
       </c>
       <c r="B208" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E208" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="F208" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23086,22 +23088,22 @@
         <v>123</v>
       </c>
       <c r="B209" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E209" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>377</v>
-      </c>
       <c r="F209" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23109,22 +23111,22 @@
         <v>123</v>
       </c>
       <c r="B210" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C210" s="8" t="s">
         <v>400</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>401</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F210" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23132,22 +23134,22 @@
         <v>126</v>
       </c>
       <c r="B211" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E211" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C211" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E211" s="8" t="s">
+      <c r="F211" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G211" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F211" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G211" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23155,22 +23157,22 @@
         <v>126</v>
       </c>
       <c r="B212" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C212" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C212" s="8" t="s">
+      <c r="D212" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D212" s="8" t="s">
+      <c r="E212" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E212" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F212" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G212" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23178,22 +23180,22 @@
         <v>126</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C213" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E213" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D213" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>257</v>
-      </c>
       <c r="F213" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G213" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23201,22 +23203,22 @@
         <v>129</v>
       </c>
       <c r="B214" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G214" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G214" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23224,22 +23226,22 @@
         <v>129</v>
       </c>
       <c r="B215" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C215" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E215" s="8" t="s">
+      <c r="F215" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G215" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23247,22 +23249,22 @@
         <v>129</v>
       </c>
       <c r="B216" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C216" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D216" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23270,22 +23272,22 @@
         <v>131</v>
       </c>
       <c r="B217" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C217" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C217" s="8" t="s">
+      <c r="D217" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D217" s="8" t="s">
+      <c r="E217" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>433</v>
-      </c>
       <c r="F217" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G217" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G217" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23293,22 +23295,22 @@
         <v>131</v>
       </c>
       <c r="B218" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C218" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C218" s="8" t="s">
+      <c r="D218" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D218" s="8" t="s">
+      <c r="E218" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E218" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F218" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23316,22 +23318,22 @@
         <v>131</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C219" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="D219" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="E219" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E219" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F219" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G219" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G219" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23339,22 +23341,22 @@
         <v>131</v>
       </c>
       <c r="B220" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C220" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C220" s="8" t="s">
+      <c r="D220" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D220" s="8" t="s">
+      <c r="E220" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E220" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F220" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23362,22 +23364,22 @@
         <v>131</v>
       </c>
       <c r="B221" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C221" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C221" s="8" t="s">
+      <c r="D221" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="E221" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E221" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F221" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G221" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G221" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23385,22 +23387,22 @@
         <v>131</v>
       </c>
       <c r="B222" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C222" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C222" s="8" t="s">
+      <c r="D222" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D222" s="8" t="s">
+      <c r="E222" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E222" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F222" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G222" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G222" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23408,22 +23410,22 @@
         <v>131</v>
       </c>
       <c r="B223" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C223" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C223" s="8" t="s">
+      <c r="D223" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D223" s="8" t="s">
+      <c r="E223" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E223" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F223" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G223" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G223" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23431,22 +23433,22 @@
         <v>131</v>
       </c>
       <c r="B224" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C224" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C224" s="8" t="s">
+      <c r="D224" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D224" s="8" t="s">
+      <c r="E224" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="F224" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="G224" s="8" t="s">
         <v>438</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23454,22 +23456,22 @@
         <v>134</v>
       </c>
       <c r="B225" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E225" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C225" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E225" s="8" t="s">
+      <c r="F225" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G225" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F225" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G225" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23477,22 +23479,22 @@
         <v>134</v>
       </c>
       <c r="B226" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C226" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C226" s="8" t="s">
+      <c r="D226" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D226" s="8" t="s">
+      <c r="E226" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E226" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F226" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G226" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23500,22 +23502,22 @@
         <v>134</v>
       </c>
       <c r="B227" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C227" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D227" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23523,22 +23525,22 @@
         <v>134</v>
       </c>
       <c r="B228" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="D228" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="E228" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E228" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F228" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23546,22 +23548,22 @@
         <v>134</v>
       </c>
       <c r="B229" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C229" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="D229" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="E229" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E229" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="F229" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23569,22 +23571,22 @@
         <v>137</v>
       </c>
       <c r="B230" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C230" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D230" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23592,22 +23594,22 @@
         <v>149</v>
       </c>
       <c r="B231" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" s="8" t="s">
         <v>440</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>441</v>
       </c>
       <c r="D231" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G231" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23615,22 +23617,22 @@
         <v>140</v>
       </c>
       <c r="B232" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="D232" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="E232" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E232" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="F232" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23638,22 +23640,22 @@
         <v>143</v>
       </c>
       <c r="B233" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E233" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C233" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F233" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G233" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G233" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23661,22 +23663,22 @@
         <v>143</v>
       </c>
       <c r="B234" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E234" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E234" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F234" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G234" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23684,22 +23686,22 @@
         <v>143</v>
       </c>
       <c r="B235" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E235" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C235" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="F235" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G235" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23707,22 +23709,22 @@
         <v>143</v>
       </c>
       <c r="B236" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C236" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C236" s="8" t="s">
+      <c r="D236" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="E236" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E236" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F236" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G236" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G236" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23730,22 +23732,22 @@
         <v>143</v>
       </c>
       <c r="B237" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C237" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="D237" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D237" s="8" t="s">
+      <c r="E237" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E237" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F237" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G237" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G237" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23753,22 +23755,22 @@
         <v>143</v>
       </c>
       <c r="B238" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C238" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C238" s="8" t="s">
+      <c r="D238" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="E238" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E238" s="8" t="s">
-        <v>316</v>
-      </c>
       <c r="F238" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G238" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23776,22 +23778,22 @@
         <v>143</v>
       </c>
       <c r="B239" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C239" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C239" s="8" t="s">
+      <c r="D239" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D239" s="8" t="s">
+      <c r="E239" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E239" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="F239" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G239" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23799,22 +23801,22 @@
         <v>146</v>
       </c>
       <c r="B240" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C240" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="D240" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D240" s="8" t="s">
+      <c r="E240" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E240" s="8" t="s">
+      <c r="F240" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G240" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="F240" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G240" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23822,22 +23824,22 @@
         <v>151</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D241" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F241" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G241" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G241" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23845,22 +23847,22 @@
         <v>151</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D242" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23868,22 +23870,22 @@
         <v>154</v>
       </c>
       <c r="B243" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C243" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D243" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E243" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F243" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F243" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G243" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23891,22 +23893,22 @@
         <v>154</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F244" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G244" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G244" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23914,22 +23916,22 @@
         <v>154</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D245" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23937,22 +23939,22 @@
         <v>157</v>
       </c>
       <c r="B246" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C246" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C246" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D246" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F246" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G246" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G246" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23960,22 +23962,22 @@
         <v>157</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D247" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F247" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -23983,12 +23985,12 @@
         <v>160</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F248" s="8"/>
       <c r="G248" s="8"/>
@@ -23998,22 +24000,22 @@
         <v>163</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D249" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F249" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G249" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G249" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24021,22 +24023,22 @@
         <v>163</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D250" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F250" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G250" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24044,12 +24046,12 @@
         <v>166</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F251" s="8"/>
       <c r="G251" s="8"/>
@@ -24059,22 +24061,22 @@
         <v>169</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D252" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24082,22 +24084,22 @@
         <v>169</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24105,22 +24107,22 @@
         <v>172</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D254" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F254" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G254" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24128,22 +24130,22 @@
         <v>172</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D255" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24151,22 +24153,22 @@
         <v>175</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D256" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F256" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G256" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G256" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24174,22 +24176,22 @@
         <v>175</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C257" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D257" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24197,22 +24199,22 @@
         <v>177</v>
       </c>
       <c r="B258" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C258" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C258" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D258" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E258" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F258" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F258" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G258" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24220,22 +24222,22 @@
         <v>177</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D259" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E259" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F259" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F259" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G259" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24243,22 +24245,22 @@
         <v>179</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D260" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F260" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G260" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="G260" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24266,22 +24268,22 @@
         <v>179</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D261" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24289,22 +24291,22 @@
         <v>182</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D262" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24312,22 +24314,22 @@
         <v>182</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C263" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24335,22 +24337,22 @@
         <v>184</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D264" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24358,22 +24360,22 @@
         <v>184</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D265" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G265" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24381,22 +24383,22 @@
         <v>186</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D266" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E266" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F266" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F266" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G266" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24404,22 +24406,22 @@
         <v>186</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D267" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E267" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F267" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F267" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G267" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24427,22 +24429,22 @@
         <v>188</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C268" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E268" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F268" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F268" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G268" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24450,22 +24452,22 @@
         <v>188</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D269" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E269" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F269" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F269" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G269" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24473,22 +24475,22 @@
         <v>190</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D270" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E270" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F270" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F270" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G270" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24496,22 +24498,22 @@
         <v>190</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D271" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E271" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F271" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F271" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G271" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24519,22 +24521,22 @@
         <v>191</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D272" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E272" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F272" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F272" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G272" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24542,22 +24544,22 @@
         <v>191</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D273" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E273" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F273" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F273" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G273" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24565,22 +24567,22 @@
         <v>193</v>
       </c>
       <c r="B274" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C274" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C274" s="8" t="s">
+      <c r="D274" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D274" s="8" t="s">
+      <c r="E274" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E274" s="8" t="s">
-        <v>325</v>
-      </c>
       <c r="F274" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24588,22 +24590,22 @@
         <v>193</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24611,22 +24613,22 @@
         <v>193</v>
       </c>
       <c r="B276" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C276" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C276" s="8" t="s">
+      <c r="D276" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D276" s="8" t="s">
+      <c r="E276" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E276" s="8" t="s">
+      <c r="F276" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G276" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="F276" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G276" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24634,22 +24636,22 @@
         <v>193</v>
       </c>
       <c r="B277" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D277" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E277" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C277" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D277" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E277" s="8" t="s">
+      <c r="F277" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G277" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="F277" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G277" s="8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24657,22 +24659,22 @@
         <v>193</v>
       </c>
       <c r="B278" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D278" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E278" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C278" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D278" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>332</v>
-      </c>
       <c r="F278" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24680,22 +24682,22 @@
         <v>193</v>
       </c>
       <c r="B279" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D279" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E279" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F279" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G279" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C279" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D279" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E279" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F279" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G279" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24703,22 +24705,22 @@
         <v>193</v>
       </c>
       <c r="B280" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C280" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C280" s="8" t="s">
+      <c r="D280" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D280" s="8" t="s">
+      <c r="E280" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E280" s="8" t="s">
+      <c r="F280" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="G280" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="F280" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G280" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24726,22 +24728,22 @@
         <v>196</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C281" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D281" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24749,22 +24751,22 @@
         <v>196</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D282" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24772,22 +24774,22 @@
         <v>199</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C283" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D283" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E283" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F283" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F283" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G283" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24795,22 +24797,22 @@
         <v>199</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C284" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D284" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E284" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F284" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F284" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G284" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24818,22 +24820,22 @@
         <v>201</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C285" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D285" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E285" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F285" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F285" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G285" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -24841,22 +24843,22 @@
         <v>201</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C286" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D286" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E286" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F286" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F286" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="G286" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
